--- a/wb-office/src/test/resources/template.xlsx
+++ b/wb-office/src/test/resources/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>备注</t>
   </si>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${data.班级+"班"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -92,7 +88,11 @@
     <t>${data.年级+"年级"}</t>
   </si>
   <si>
-    <t>${for(i=0;i&lt;list.size();i++)}${def data=list.get(i)}${i+1}</t>
+    <t>${def test=[name:"测试"]}${标题}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${i+1}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -100,7 +100,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${def test=[name:"测试"]}${标题}</t>
+    <t>${for(i=0;i&lt;list.size();i++)}${def data=list.get(i)}${""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.年龄}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1班</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -198,13 +206,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +349,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +362,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,20 +694,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,7 +728,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -599,96 +749,96 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -707,7 +857,7 @@
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I13"/>
+      <selection activeCell="B4" sqref="B4:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,24 +872,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="B2" s="13"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -762,15 +912,17 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="13"/>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
@@ -779,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -787,122 +939,122 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="13"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:B13"/>
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="C4:I13"/>
+    <mergeCell ref="B4:I13"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wb-office/src/test/resources/template.xlsx
+++ b/wb-office/src/test/resources/template.xlsx
@@ -108,7 +108,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1班</t>
+    <t>${"1班"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
